--- a/splitted_excels/999-32980216-F.xlsx
+++ b/splitted_excels/999-32980216-F.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,10 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -37,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -51,14 +55,18 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,236 +441,237 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Invoice_No</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Part</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Commercial_Description</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Country_of_Origin</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Country_of_Export</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Tariff_Number</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Quantity_UOM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Unit_Price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Total_Line_Value</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Net_Weight_KG</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Gross_Weight_KG</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>Manufacturer_Name</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Manufacturer_Address_1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>Manufacturer_Address_2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>Manufacturer_City</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>Manufacturer_State</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>Manufacturer_Zip</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>Manufacturer_Country</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>MID_Code</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>Buyer_Name</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>Buyer_Address_1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>Buyer_Address_2</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>Buyer_City</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>Buyer_State</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>Buyer_Zip</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>Buyer_Country</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>Buyer_ID_Number</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t>Consignee_Name</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" s="2" t="inlineStr">
         <is>
           <t>Consignee_Address_1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" s="2" t="inlineStr">
         <is>
           <t>Consignee_Address_2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" s="2" t="inlineStr">
         <is>
           <t>Consignee_City</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" s="2" t="inlineStr">
         <is>
           <t>Consignee_State</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" s="2" t="inlineStr">
         <is>
           <t>Consignee_Zip</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" s="2" t="inlineStr">
         <is>
           <t>Consignee_Country</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" s="2" t="inlineStr">
         <is>
           <t>Consignee_ID_Number</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" s="2" t="inlineStr">
         <is>
           <t>SICountry</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" s="2" t="inlineStr">
         <is>
           <t>SP1</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" s="2" t="inlineStr">
         <is>
           <t>SP2</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" s="2" t="inlineStr">
         <is>
           <t>Zone_Status</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" s="2" t="inlineStr">
         <is>
           <t>Privileged_Filing_Date</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" s="2" t="inlineStr">
         <is>
           <t>Line_Piece_Count</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" s="2" t="inlineStr">
         <is>
           <t>ADD_Case_Number</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" s="2" t="inlineStr">
         <is>
           <t>CVD_Case_Number</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" s="2" t="inlineStr">
         <is>
           <t>AD_Non_Reimbursement_Statement</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" s="2" t="inlineStr">
         <is>
           <t>AD-CVD_Certification_Designation</t>
         </is>
